--- a/cypress/downloads/order-invoice_loaizafcamilo.xlsx
+++ b/cypress/downloads/order-invoice_loaizafcamilo.xlsx
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>67e41f5cc019fb1ad63a5442</v>
+        <v>67e4265bc019fb1ad63a60d2</v>
       </c>
       <c r="B2" t="str">
         <v>qwerty</v>
